--- a/Table2-200loactions.xlsx
+++ b/Table2-200loactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C108EFD-E722-424E-BD61-12EDE633A373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA6EBAA-C750-412E-8025-11F1CB28E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +341,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,18 +357,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +642,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,10 +679,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -719,7 +716,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="28">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -763,23 +760,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="26"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11">
         <v>12172</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="3">
         <v>12754</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="3">
         <v>0.05</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <v>4750.04</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="25">
         <v>2</v>
       </c>
       <c r="H5" s="17">
@@ -805,7 +802,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
@@ -818,7 +815,7 @@
       <c r="E6" s="8">
         <v>0.06</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="27">
         <v>4736.1899999999996</v>
       </c>
       <c r="G6" s="18">
@@ -847,7 +844,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -891,23 +888,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="11">
         <v>12996</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="3">
         <v>13135</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="3">
         <v>0.01</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="26">
         <v>3947.35</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="25">
         <v>3</v>
       </c>
       <c r="H8" s="17">
@@ -933,7 +930,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -946,7 +943,7 @@
       <c r="E9" s="8">
         <v>0.02</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="27">
         <v>4038.95</v>
       </c>
       <c r="G9" s="18">
